--- a/Atlantic Hurricanes (Data Cleaning Challenge)/Hurricanes.xlsx
+++ b/Atlantic Hurricanes (Data Cleaning Challenge)/Hurricanes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e20ae54e682c162/Desktop/Work/Projects/Atlantic Hurricanes (Data Cleaning Challenge)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e20ae54e682c162/Desktop/Work/Projects/PortfolioProjects/Atlantic Hurricanes (Data Cleaning Challenge)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0B3FDF-3418-437A-A3EB-E3D0BE1754D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2F0B3FDF-3418-437A-A3EB-E3D0BE1754D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6BF4AC-C411-48CB-BA75-CF65A4157A12}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricanes" sheetId="1" r:id="rId1"/>
@@ -4384,7 +4384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5218,11 +5218,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
